--- a/data/trans_dic/P04D$aparatos-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P04D$aparatos-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,73; 65,98</t>
+          <t>53,62; 66,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,68; 20,35</t>
+          <t>11,15; 19,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,53; 49,81</t>
+          <t>35,44; 49,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>48,59; 60,99</t>
+          <t>48,79; 61,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 19,49</t>
+          <t>10,74; 19,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,13; 51,8</t>
+          <t>42,42; 52,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,01; 62,19</t>
+          <t>53,19; 61,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,97; 18,14</t>
+          <t>12,08; 18,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,56; 49,1</t>
+          <t>40,69; 49,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,76; 72,57</t>
+          <t>63,36; 72,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,7; 39,85</t>
+          <t>31,0; 39,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,05; 87,79</t>
+          <t>79,24; 87,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>65,77; 73,55</t>
+          <t>65,23; 73,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,98; 36,72</t>
+          <t>28,39; 36,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,28; 87,72</t>
+          <t>81,92; 87,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,97; 71,95</t>
+          <t>66,0; 71,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,83; 36,99</t>
+          <t>30,97; 37,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,32; 86,71</t>
+          <t>81,43; 86,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,55; 79,92</t>
+          <t>70,39; 79,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>76,14; 84,95</t>
+          <t>76,01; 84,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,12; 77,14</t>
+          <t>66,84; 77,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74,13; 83,15</t>
+          <t>74,12; 83,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>76,71; 84,99</t>
+          <t>76,44; 85,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>68,83; 77,28</t>
+          <t>69,37; 77,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,64; 80,2</t>
+          <t>73,92; 80,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>77,83; 83,96</t>
+          <t>77,86; 83,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69,53; 76,03</t>
+          <t>69,44; 75,85</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,22; 63,9</t>
+          <t>53,32; 63,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>56,12; 66,45</t>
+          <t>56,94; 66,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,19; 45,34</t>
+          <t>31,37; 44,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,89; 66,8</t>
+          <t>57,18; 67,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,47; 67,73</t>
+          <t>57,6; 67,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,26; 56,52</t>
+          <t>28,82; 55,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,79; 64,08</t>
+          <t>56,91; 64,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,57; 65,78</t>
+          <t>58,75; 66,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,3; 49,81</t>
+          <t>30,73; 49,37</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>55,35; 69,06</t>
+          <t>54,69; 68,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>84,7; 93,0</t>
+          <t>84,59; 93,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,36; 99,74</t>
+          <t>96,8; 99,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46,67; 59,74</t>
+          <t>46,7; 59,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>85,23; 92,86</t>
+          <t>85,0; 92,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>94,92; 98,87</t>
+          <t>95,15; 98,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>52,52; 62,03</t>
+          <t>52,25; 62,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>86,36; 92,47</t>
+          <t>86,37; 92,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>96,64; 98,96</t>
+          <t>96,76; 98,95</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>62,53; 73,77</t>
+          <t>62,89; 74,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,45; 31,05</t>
+          <t>20,01; 30,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,35; 60,47</t>
+          <t>48,78; 59,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>65,72; 77,04</t>
+          <t>66,07; 76,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,95; 29,45</t>
+          <t>19,14; 29,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,9; 58,36</t>
+          <t>48,46; 58,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>65,44; 74,0</t>
+          <t>66,23; 74,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,71; 28,19</t>
+          <t>20,84; 28,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>50,26; 57,78</t>
+          <t>50,37; 57,62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>69,22; 76,44</t>
+          <t>69,19; 76,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>47,15; 55,62</t>
+          <t>47,19; 55,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,55; 37,05</t>
+          <t>27,33; 37,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>69,23; 76,14</t>
+          <t>68,85; 76,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,22; 55,01</t>
+          <t>47,56; 55,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,05; 73,4</t>
+          <t>29,09; 77,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>70,34; 75,21</t>
+          <t>70,08; 75,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48,4; 53,87</t>
+          <t>48,34; 54,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,1; 65,05</t>
+          <t>30,24; 59,38</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>44,76; 52,74</t>
+          <t>44,72; 52,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>60,48; 67,69</t>
+          <t>60,52; 67,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,42; 91,6</t>
+          <t>30,09; 91,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>52,29; 59,47</t>
+          <t>52,11; 59,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>58,07; 64,87</t>
+          <t>58,16; 65,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>88,66; 92,27</t>
+          <t>88,7; 92,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>49,98; 54,96</t>
+          <t>49,89; 55,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>60,56; 65,67</t>
+          <t>60,65; 65,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>48,04; 91,28</t>
+          <t>47,86; 91,26</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>61,28; 64,94</t>
+          <t>61,54; 64,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>51,34; 54,78</t>
+          <t>51,2; 54,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45,94; 64,75</t>
+          <t>45,25; 64,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>63,42; 66,71</t>
+          <t>63,32; 66,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>50,55; 54,0</t>
+          <t>50,72; 53,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>63,32; 72,2</t>
+          <t>62,9; 72,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>62,95; 65,18</t>
+          <t>62,96; 65,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>51,39; 53,81</t>
+          <t>51,46; 53,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>56,24; 66,83</t>
+          <t>56,47; 66,81</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene aparatos de calefacción en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>175349</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>45072</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>131516</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>157650</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>42084</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>137481</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>332999</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>87156</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>268996</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>157087; 193536</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>32766; 58156</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>110361; 153063</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>139590; 175422</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>31014; 55913</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>122851; 152435</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>308029; 356586</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>70358; 105548</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>244605; 295905</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>342585</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>178183</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>434523</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>362840</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>171480</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>437631</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>705425</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>349662</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>872154</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>319091; 363087</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>155784; 199673</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>410781; 454439</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>340265; 383015</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>148495; 192648</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>421863; 450096</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>676693; 736734</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>317641; 380382</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>841426; 895814</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>244482</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>256731</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>227554</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>269176</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>272656</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>255047</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>513658</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>529387</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>482601</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>228099; 258506</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>242146; 269607</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>210570; 242963</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>252747; 284296</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>257077; 286021</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>241339; 269602</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>491635; 534679</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>509865; 548258</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>460334; 502824</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>219199</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>228259</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>120098</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>241790</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>242732</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>210993</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>460989</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>470991</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>331091</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>198883; 238684</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>210648; 247077</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>98047; 139636</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>222384; 261954</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>223086; 262603</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>136457; 263375</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>433656; 490781</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>444863; 501430</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>241499; 388039</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>131756</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>189047</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>177069</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>116241</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>195312</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>251761</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>247997</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>384359</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>428830</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>116285; 146310</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>178673; 196962</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>173030; 178352</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>102556; 131373</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>185790; 202812</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>245787; 255250</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>225840; 268938</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>371239; 396012</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>422890; 432498</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>188061</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>66825</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>147105</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>200183</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>65204</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>137235</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>388244</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>132029</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>284340</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>172307; 204289</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>52640; 81343</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>131521; 161576</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>184373; 214272</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>52265; 80772</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>124570; 150678</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>366304; 412832</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>111769; 150955</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>265283; 303455</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>483165</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>337088</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>200272</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>503829</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>354171</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>397404</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>986993</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>691259</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>597676</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>458600; 506731</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>309800; 363914</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>169809; 231242</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>477719; 527560</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>328768; 381516</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>245911; 658879</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>950780; 1021522</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>651541; 730389</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>443529; 870905</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1652</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>378285</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>499341</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>620785</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>460340</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>510256</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>650111</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>838625</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1009597</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1270895</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>347319; 405328</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>471188; 528649</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>278776; 849246</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>429334; 490184</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>480467; 538208</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>636601; 662030</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>798459; 881879</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>973207; 1050687</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>786911; 1500634</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1741</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2202</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>3549</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3500</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>5751</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2162883</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1800544</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2058920</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>2312049</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1853895</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2477662</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>4474931</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>3654439</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>4536582</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2104605; 2219363</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1737791; 1856233</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1562695; 2236086</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2250375; 2369772</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1797706; 1912004</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2330217; 2672409</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>4390928; 4557754</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>3570685; 3733500</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>4041784; 4782236</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>